--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_8.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_14_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999960029032918</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990405690442269</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999913492262499</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999966447411504</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999937483211067</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G2" t="n">
-        <v>3.731114324822759e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008955866830625698</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I2" t="n">
-        <v>4.136124358123753e-06</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J2" t="n">
-        <v>1.283537596989747e-06</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K2" t="n">
-        <v>2.70983097755675e-06</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001611796401511429</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001931609257801059</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000010658924555</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002013841862888045</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P2" t="n">
-        <v>90.9976072446463</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q2" t="n">
-        <v>131.2205094652969</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_1</t>
+          <t>model_14_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999941499309118</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990358126375716</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999729567077994</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999863440557781</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999979059025616</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G3" t="n">
-        <v>5.460782705482581e-06</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009000265798932092</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I3" t="n">
-        <v>1.29299901748899e-05</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>5.224013590779377e-06</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K3" t="n">
-        <v>9.07700188283464e-06</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002248002730132589</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002336831766619622</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000015600184235</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002436315532833246</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P3" t="n">
-        <v>90.23583685165796</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.4587390723086</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_2</t>
+          <t>model_14_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999884219851872</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990221785265312</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999132949897844</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999710159866123</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999393903980863</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G4" t="n">
-        <v>1.08075686115662e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009127534240810248</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I4" t="n">
-        <v>4.145556398549795e-05</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>1.108769026827362e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K4" t="n">
-        <v>2.627162712688579e-05</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000305983107217749</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003287486670933618</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000030874706167</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003427441784550833</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P4" t="n">
-        <v>88.87052774382134</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q4" t="n">
-        <v>129.093429964472</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_3</t>
+          <t>model_14_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999802635044595</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989998746004773</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998269529490942</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999952021684849</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9998833891686684</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G5" t="n">
-        <v>1.842315225504967e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009335731600231625</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I5" t="n">
-        <v>8.273758429294743e-05</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J5" t="n">
-        <v>1.835386600439427e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>5.054572514867084e-05</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003840271892768221</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004292219968157465</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000052630654775</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O5" t="n">
-        <v>0.00447494865832215</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P5" t="n">
-        <v>87.80380481916518</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.0267070398158</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_4</t>
+          <t>model_14_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999735629830733</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9989818621318907</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9997551413016711</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999352299346838</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9998363737013782</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G6" t="n">
-        <v>2.467779485012924e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009503870087928092</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001170723054036237</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J6" t="n">
-        <v>2.477746657358897e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K6" t="n">
-        <v>7.092488598860633e-05</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004286712617309576</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004967674994414313</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000070498711805</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005179159203431412</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P6" t="n">
-        <v>87.21921342517925</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q6" t="n">
-        <v>127.4421156458299</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_5</t>
+          <t>model_14_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999637229882428</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989562738946113</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9996504055363404</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999127410816773</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9997686858721933</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G7" t="n">
-        <v>3.386299809856312e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009742725050993492</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001671487682336681</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J7" t="n">
-        <v>3.338046551955506e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001002646168766116</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004858403866630468</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005819192220451489</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000096738698019</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00606692728066465</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P7" t="n">
-        <v>86.58637528243356</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q7" t="n">
-        <v>126.8092775030842</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_6</t>
+          <t>model_14_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999529217164222</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989297080070392</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9995357940100671</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9998876529269386</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996944043395417</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G8" t="n">
-        <v>4.394551122206319e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009990705950401774</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002219470486224144</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J8" t="n">
-        <v>4.29778144244286e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001324624315234215</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005372492007710712</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006629141062163574</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000125542089541</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006911357321393659</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P8" t="n">
-        <v>86.06512014558109</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q8" t="n">
-        <v>126.2880223662317</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_7</t>
+          <t>model_14_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999428976492396</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989058280059737</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9994299223998463</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998634042771993</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996253135163408</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G9" t="n">
-        <v>5.330253793134441e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001021361527823878</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002725665837662839</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J9" t="n">
-        <v>5.22540148641595e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001624102993152217</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005788621258753528</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M9" t="n">
-        <v>0.007300858711914949</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152272935361</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007611671382142176</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P9" t="n">
-        <v>85.67905322390678</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.9019554445574</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_8</t>
+          <t>model_14_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999349399625408</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9988860911563767</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999345763579301</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999843737968985</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9995702198434984</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G10" t="n">
-        <v>6.073068916262919e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001039785010575096</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0003128047587158341</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J10" t="n">
-        <v>5.977726332821807e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001862910110220261</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0006063328536228119</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00779298974480457</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000173493433224</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008124753451953588</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P10" t="n">
-        <v>85.41812280028482</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q10" t="n">
-        <v>125.6410250209354</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_9</t>
+          <t>model_14_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999241730872837</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988618982534365</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9992336726550478</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998166886303393</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9994964630622841</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G11" t="n">
-        <v>7.078109460389767e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001062368023524046</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0003663978840845338</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J11" t="n">
-        <v>7.012485338940524e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002182613687369695</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0006432910681437316</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M11" t="n">
-        <v>0.008413150099926761</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000202205100577</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O11" t="n">
-        <v>0.008771315317302242</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P11" t="n">
-        <v>85.11183723658179</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.3347394572324</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_10</t>
+          <t>model_14_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999165685210321</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988448559122657</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9991545850199702</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997969437814462</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999444131603597</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G12" t="n">
-        <v>7.787962339788869e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001078276300934733</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004042114142169699</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J12" t="n">
-        <v>7.767814719979284e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002409447807083813</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0006652480268406494</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M12" t="n">
-        <v>0.008824943251822568</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000222483943914</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O12" t="n">
-        <v>0.009200639356203594</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P12" t="n">
-        <v>84.92069242628732</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q12" t="n">
-        <v>125.1435946469379</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_11</t>
+          <t>model_14_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999091753651851</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988291185392881</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9990781219195313</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997774933012038</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9993933775312013</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G13" t="n">
-        <v>8.478080985899621e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001092966447818427</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004407700968685886</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>8.511883174587467e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002629444643072316</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006855915665921485</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009207649529548582</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000242199026173</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O13" t="n">
-        <v>0.009599638232483613</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P13" t="n">
-        <v>84.75088267921691</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q13" t="n">
-        <v>124.9737848998675</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999013162935233</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988125936010349</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9989974822077704</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9997565976343112</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9993396822430414</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G14" t="n">
-        <v>9.21169082819068e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001108391752316866</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004793257088495306</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J14" t="n">
-        <v>9.311236526221873e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002862190370558746</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0007069136044419449</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009597755377269562</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000263156550605</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01000635169377251</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P14" t="n">
-        <v>84.58490409086023</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q14" t="n">
-        <v>124.8078063115109</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_13</t>
+          <t>model_14_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998960687835857</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988015531954394</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9989436810203028</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E15" t="n">
-        <v>0.999742234085702</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9993036714455161</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G15" t="n">
-        <v>9.701522846954929e-05</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001118697486322534</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005050492346759191</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J15" t="n">
-        <v>9.860706939456427e-05</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003018281520352417</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007186136546976923</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009849630879862924</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000277149910438</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01026895005796544</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P15" t="n">
-        <v>84.48128519450361</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q15" t="n">
-        <v>124.7041874151542</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_14</t>
+          <t>model_14_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998901180286804</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9987895324305051</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9988831546794437</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9997258818136591</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9992630740064474</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001025699969657198</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001129918342738059</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I16" t="n">
-        <v>0.000533988203601234</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001048625497922914</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003194253766967627</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0007328714432590023</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01012768467941808</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000293018590185</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01055884118341837</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P16" t="n">
-        <v>84.36993019045497</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q16" t="n">
-        <v>124.5928324111056</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_15</t>
+          <t>model_14_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998860572795963</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9987811810261539</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9988418691436124</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9997144839187138</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9992352745321416</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001063605279894408</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001137714012115597</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0005537277223219525</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001092227578550173</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003314752400884849</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0007408300341753812</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01031312406545373</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00030384725441</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01075217510803</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P17" t="n">
-        <v>84.29735205485754</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q17" t="n">
-        <v>124.5202542755082</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_16</t>
+          <t>model_14_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998794546088093</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9987688919548029</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9987751428004945</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996962908481593</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9991904453593291</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001125238313453104</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001149185320793934</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0005856310480901574</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001161824265744418</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003509067373322996</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0007572590511116177</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01060772507870139</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000321454376508</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01105931789631979</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P18" t="n">
-        <v>84.18469104914591</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q18" t="n">
-        <v>124.4075932697965</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_17</t>
+          <t>model_14_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998750330630668</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987604526704833</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9987306042242248</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999683852754942</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9991603927495241</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001166511502126344</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001157063022264428</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I19" t="n">
-        <v>0.000606925916677136</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001209405573162506</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003639332369966933</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0007668041596860124</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01080051620121161</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000333245165155</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01126031653604791</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P19" t="n">
-        <v>84.11264539834278</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q19" t="n">
-        <v>124.3355476189934</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_18</t>
+          <t>model_14_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999870842815193</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987525762661461</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9986885757368384</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996719120470204</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9991319439923176</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001205625626721513</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001164415299978998</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006270206568048816</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001255084157852066</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003762645362950441</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.000775735474574784</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01098009848189675</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000344419159485</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01144754400620839</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P20" t="n">
-        <v>84.04668349493448</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q20" t="n">
-        <v>124.2695857155851</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_19</t>
+          <t>model_14_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.999867604031356</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9987464721566075</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9986560916409143</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996626431010537</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9991099381556262</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001235858252177847</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00117011321829386</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I21" t="n">
-        <v>0.000642552014378681</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001290542049972889</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003858031096879849</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0007819507341368421</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01111691617391193</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000353055916384</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01159018631062432</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P21" t="n">
-        <v>83.99714940444251</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q21" t="n">
-        <v>124.2200516250931</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_20</t>
+          <t>model_14_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998652310472484</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987417264575243</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9986324315791019</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9996556333669168</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9990937958991937</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001258009017202542</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001174543120075926</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0006538644080215284</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001317357439523385</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003928000759869334</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007857315397640975</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01121610011190406</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000359383874004</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01169359271419582</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P22" t="n">
-        <v>83.96162009167215</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q22" t="n">
-        <v>124.1845223123228</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_21</t>
+          <t>model_14_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998621819793785</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987361466039986</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9986020058643401</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999646821827999</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990731271468998</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001286470727382552</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001179751668414995</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0006684116084886423</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001351065543711878</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0004017590814299151</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0007917914770352799</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01134226929402821</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000367514721657</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01182513317960922</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P23" t="n">
-        <v>83.91687554636341</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.139777767014</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_22</t>
+          <t>model_14_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998595686446151</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987314482932421</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9985759592775569</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996392614540069</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9990554256863439</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001310865060277421</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001184137335274079</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0006808650519783487</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001379987378661027</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0004094318949222257</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000796810945297103</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01144930155196124</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00037448361436</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01193672202234978</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P24" t="n">
-        <v>83.87930620268466</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q24" t="n">
-        <v>124.1022084233353</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_14_8_23</t>
+          <t>model_14_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998569941689843</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9987268428001929</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9985503471805007</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996318248814635</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9990380184867688</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001334896660226434</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001188436360877789</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0006931107564155013</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001408435617321348</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0004169771590738181</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0008018885523412769</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01155377280470078</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000381348882708</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01204564083260374</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P25" t="n">
-        <v>83.84297298238043</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q25" t="n">
-        <v>124.0658752030311</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998545696528425</v>
+        <v>0.999997025781996</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987226029222371</v>
+        <v>0.9990399586905852</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9985261862936847</v>
+        <v>0.9999999999998939</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996248448796463</v>
+        <v>0.9999998150907792</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9990216131342248</v>
+        <v>0.9999998953322146</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001357528454170778</v>
+        <v>2.776301953652792e-06</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001192394100840288</v>
+        <v>0.0008961564213956752</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007046626054592196</v>
+        <v>1.044290021474919e-13</v>
       </c>
       <c r="J26" t="n">
-        <v>0.00014351372673609</v>
+        <v>2.548652552803534e-07</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0004240881660976548</v>
+        <v>1.274326798546778e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0008067169328345637</v>
+        <v>0.0001004477823987822</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01165130230562566</v>
+        <v>0.001666223860606009</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000387814259087</v>
+        <v>1.000007931248011</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01214732236629689</v>
+        <v>0.001737158459910895</v>
       </c>
       <c r="P26" t="n">
-        <v>83.80934927730956</v>
+        <v>91.58878149661076</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.0322514979602</v>
+        <v>131.8116837172614</v>
       </c>
     </row>
   </sheetData>
